--- a/data/anställning_sektor.xlsx
+++ b/data/anställning_sektor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://svenskidrott-my.sharepoint.com/personal/william_lind_rfsisu_se/Documents/Dokument/GitHub/svenskstatistik-arbete/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_708ECC4B6DFF70B00DD3870D2033360BC102618E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5D10FEB-B088-447C-B73B-02104BB1C59C}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_708ECC4B6DFF70B00DD3870D2033360BC102618E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DEC5F9E-1CF8-4E2E-A1D5-A0CF632699D8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31635" yWindow="2415" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0000070M" sheetId="2" r:id="rId1"/>
@@ -22,15 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
-    <t>män</t>
-  </si>
-  <si>
-    <t>kvinnor</t>
-  </si>
-  <si>
-    <t>totalt</t>
-  </si>
-  <si>
     <t>Antal anställda</t>
   </si>
   <si>
@@ -53,6 +44,15 @@
   </si>
   <si>
     <t>Kommun</t>
+  </si>
+  <si>
+    <t>Män</t>
+  </si>
+  <si>
+    <t>Kvinnor</t>
+  </si>
+  <si>
+    <t>Totalt</t>
   </si>
 </sst>
 </file>
@@ -94,11 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,186 +403,186 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>2839714</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>2741253</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>5580967</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>2258661</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>1472435</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>3731097</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="C8" s="2">
         <v>154057</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>170363</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <v>324421</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="2">
         <v>76691</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>250477</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>2</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="2">
         <v>327169</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
       </c>
       <c r="C14" s="2">
         <v>284026</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
       </c>
       <c r="C15" s="2">
         <v>758069</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
         <v>10</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="C16" s="2">
         <v>1042095</v>
